--- a/Projectmanagement/FP-Time Diagram.xlsx
+++ b/Projectmanagement/FP-Time Diagram.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\DH\TrackYourFit\TrackYourFit_docs\Projectmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4CFBDB-480D-4951-BD6E-3CEE20B7FA0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3DFA20-77A9-418F-983E-ECA857B33D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{E9063866-28BA-4CB0-9D5A-0A02EF08A75F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$G$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$G$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$G$4:$G$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CRUD News</t>
   </si>
@@ -59,6 +51,27 @@
   </si>
   <si>
     <t>Track Weight</t>
+  </si>
+  <si>
+    <t>Admin Stats</t>
+  </si>
+  <si>
+    <t>Interact With Users</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Show Extended Homeview</t>
+  </si>
+  <si>
+    <t>Track Trainingplan</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>View Stats</t>
   </si>
 </sst>
 </file>
@@ -82,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,12 +103,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -138,7 +162,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$G$3</c:f>
+              <c:f>Tabelle1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -177,8 +201,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B646ED5-EF5B-4AE9-AB52-40C7EDB3CB99}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                    <a:fld id="{76405AC8-6572-4756-B950-252137E9117C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -210,8 +234,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05468042-CF29-4315-B441-EE53A03ADE2D}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                    <a:fld id="{A47A8959-C3CD-4092-B872-E52F97EFBC02}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -243,8 +267,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F8FDCA3-01B3-4F0E-8651-01DDF2755ADD}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                    <a:fld id="{EAD2A8A1-9CC5-4956-9EDB-9EEB8B0ED4DF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -276,8 +300,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AA20455-9F2A-48A8-B7C9-3441297F0F38}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                    <a:fld id="{5D90F483-9A18-4DA9-A2E4-74A9E5D4FB55}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -299,6 +323,237 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-618B-4476-8C8D-1E4D91005485}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AC91030-28CB-437C-BB12-EECF45206EF7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-474D-4415-A2FB-2AAA89131287}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A68B1C24-D0E3-4AF6-9C5A-0F2C00324551}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-474D-4415-A2FB-2AAA89131287}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD1B8E4D-0B8C-44AE-88B2-EA9BA637A7E4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-474D-4415-A2FB-2AAA89131287}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F6F57545-8500-458D-BA75-8DD7C8E860E9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-474D-4415-A2FB-2AAA89131287}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C3EA6787-FD33-4812-9CAD-A94313DE46F4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-474D-4415-A2FB-2AAA89131287}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E001781F-8F10-4EF1-ABBC-5387484C6F7B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-474D-4415-A2FB-2AAA89131287}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C86F849A-9184-49D4-AFF0-3BB731BC08FD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-474D-4415-A2FB-2AAA89131287}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -375,42 +630,84 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$4:$F$7</c:f>
+              <c:f>Tabelle1!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.5</c:v>
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$4:$G$7</c:f>
+              <c:f>Tabelle1!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,11 +716,11 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Tabelle1!$E$4:$E$7</c15:f>
+                <c15:f>Tabelle1!$A$4:$A$14</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="1">
-                    <c:v>Track Weight</c:v>
+                    <c:v>Admin Stats</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>CRUD News</c:v>
@@ -431,11 +728,537 @@
                   <c:pt idx="3">
                     <c:v>CRUD Traininplan </c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Interact With Users</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Manage Account</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Show Extended Homeview</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Track Trainingplan</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Track Weight</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>User Management</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>View Stats</c:v>
+                  </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-618B-4476-8C8D-1E4D91005485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="734859760"/>
+        <c:axId val="508086672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="734859760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508086672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508086672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>FP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734859760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$3:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time FP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$B$4:$B$5,Tabelle1!$B$8:$B$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$4:$C$5,Tabelle1!$C$8:$C$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-26C6-460A-B72C-D8E6A38B0DF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -835,6 +1658,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1351,20 +2214,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>242093</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>77787</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>75680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>53180</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241491</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1384,6 +2763,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328448</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>494259</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67769</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D2984D-9CED-455C-8BA8-47E9F0F06C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1689,70 +3106,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF7D9EB-C9C0-47B2-A12A-5353D3EF4832}">
-  <dimension ref="E3:G7"/>
+  <dimension ref="A3:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="F4">
+    <row r="4" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10.3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>28.5</v>
+      </c>
+      <c r="C7">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15.5</v>
+      </c>
+      <c r="C8">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>13.1</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11.15</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>16.25</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>20.5</v>
-      </c>
-      <c r="G7">
-        <v>33.799999999999997</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>17.45</v>
+      </c>
+      <c r="C14">
+        <v>36.4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C16">
+    <sortCondition ref="A5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
